--- a/samlet_datasett.xlsx
+++ b/samlet_datasett.xlsx
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Kvinnelig kontorist</t>
   </si>
   <si>
-    <t xml:space="preserve">Kvinnelig kustner</t>
+    <t xml:space="preserve">Kvinnelig kunstner</t>
   </si>
   <si>
     <t xml:space="preserve">Kvinnelig leder</t>
